--- a/CleanData/EvaluationBSUPosNew.xlsx
+++ b/CleanData/EvaluationBSUPosNew.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28016"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="100" yWindow="100" windowWidth="24760" windowHeight="15800"/>
+    <workbookView xWindow="-42680" yWindow="3300" windowWidth="24760" windowHeight="15800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -103,21 +103,6 @@
     <t>N27</t>
   </si>
   <si>
-    <t>Faculty</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Average School  Math.</t>
-  </si>
-  <si>
-    <t>Unuversity Year</t>
-  </si>
-  <si>
-    <t>Average Univer. Math.</t>
-  </si>
-  <si>
     <t>N1</t>
   </si>
   <si>
@@ -127,20 +112,35 @@
     <t>N3</t>
   </si>
   <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Compare with classmates</t>
-  </si>
-  <si>
     <t>Faculty of Physics-Mathematics and Computer Sciences</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>university year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">faculty  </t>
+  </si>
+  <si>
+    <t>asm</t>
+  </si>
+  <si>
+    <t>aum</t>
+  </si>
+  <si>
+    <t>cwc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,14 +154,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -198,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -206,20 +198,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="90" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -525,7 +520,7 @@
   <dimension ref="A1:AK45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D19"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -543,35 +538,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="F1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="J1" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>0</v>
@@ -650,7 +645,7 @@
       <c r="AK1" s="1"/>
     </row>
     <row r="2" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2">
@@ -659,8 +654,8 @@
       <c r="C2">
         <v>2</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>34</v>
+      <c r="D2" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="E2">
         <v>8</v>
@@ -753,8 +748,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="143" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3">
@@ -763,8 +758,8 @@
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>34</v>
+      <c r="D3" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="E3">
         <v>9</v>
@@ -857,8 +852,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="143" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
         <v>1</v>
       </c>
       <c r="B4">
@@ -867,8 +862,8 @@
       <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>34</v>
+      <c r="D4" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="E4">
         <v>9</v>
@@ -961,8 +956,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="143" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
         <v>1</v>
       </c>
       <c r="B5">
@@ -971,8 +966,8 @@
       <c r="C5">
         <v>2</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>34</v>
+      <c r="D5" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="E5">
         <v>9</v>
@@ -1065,8 +1060,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:37" ht="143" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
         <v>0</v>
       </c>
       <c r="B6">
@@ -1075,8 +1070,8 @@
       <c r="C6">
         <v>2</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>34</v>
+      <c r="D6" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="E6">
         <v>10</v>
@@ -1169,8 +1164,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:37" ht="143" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
         <v>1</v>
       </c>
       <c r="B7">
@@ -1179,8 +1174,8 @@
       <c r="C7">
         <v>2</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>34</v>
+      <c r="D7" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="E7">
         <v>8</v>
@@ -1273,8 +1268,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:37" ht="143" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
         <v>1</v>
       </c>
       <c r="B8">
@@ -1283,8 +1278,8 @@
       <c r="C8">
         <v>2</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>34</v>
+      <c r="D8" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -1377,8 +1372,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:37" ht="143" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
         <v>1</v>
       </c>
       <c r="B9">
@@ -1387,8 +1382,8 @@
       <c r="C9">
         <v>2</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>34</v>
+      <c r="D9" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="E9">
         <v>6</v>
@@ -1481,8 +1476,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:37" ht="143" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
         <v>1</v>
       </c>
       <c r="B10">
@@ -1491,8 +1486,8 @@
       <c r="C10">
         <v>2</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>34</v>
+      <c r="D10" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="E10">
         <v>8</v>
@@ -1585,8 +1580,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="143" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
         <v>1</v>
       </c>
       <c r="B11">
@@ -1595,8 +1590,8 @@
       <c r="C11">
         <v>2</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>34</v>
+      <c r="D11" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="E11">
         <v>6</v>
@@ -1689,8 +1684,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="143" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
         <v>1</v>
       </c>
       <c r="B12">
@@ -1699,8 +1694,8 @@
       <c r="C12">
         <v>2</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>34</v>
+      <c r="D12" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="E12">
         <v>7</v>
@@ -1793,8 +1788,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:37" ht="143" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
         <v>1</v>
       </c>
       <c r="B13">
@@ -1803,8 +1798,8 @@
       <c r="C13">
         <v>2</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>34</v>
+      <c r="D13" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="E13">
         <v>5</v>
@@ -1897,8 +1892,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:37" ht="143" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
         <v>1</v>
       </c>
       <c r="B14">
@@ -1907,8 +1902,8 @@
       <c r="C14">
         <v>2</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>34</v>
+      <c r="D14" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="E14">
         <v>8</v>
@@ -2001,8 +1996,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:37" ht="143" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
         <v>0</v>
       </c>
       <c r="B15">
@@ -2011,8 +2006,8 @@
       <c r="C15">
         <v>2</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>34</v>
+      <c r="D15" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="E15">
         <v>9</v>
@@ -2105,8 +2100,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:37" ht="143" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
         <v>1</v>
       </c>
       <c r="B16">
@@ -2115,8 +2110,8 @@
       <c r="C16">
         <v>2</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>34</v>
+      <c r="D16" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="E16">
         <v>5</v>
@@ -2209,8 +2204,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:34" ht="143" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
         <v>1</v>
       </c>
       <c r="B17">
@@ -2219,8 +2214,8 @@
       <c r="C17">
         <v>2</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>34</v>
+      <c r="D17" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="E17">
         <v>7</v>
@@ -2313,8 +2308,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:34" ht="143" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
         <v>1</v>
       </c>
       <c r="B18">
@@ -2323,8 +2318,8 @@
       <c r="C18">
         <v>2</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>34</v>
+      <c r="D18" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="E18">
         <v>9</v>
@@ -2417,8 +2412,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:34" ht="143" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
         <v>1</v>
       </c>
       <c r="B19">
@@ -2427,8 +2422,8 @@
       <c r="C19">
         <v>2</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>34</v>
+      <c r="D19" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="E19">
         <v>9</v>
@@ -2522,82 +2517,82 @@
       </c>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="D20" s="7"/>
+      <c r="D20" s="5"/>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="D21" s="7"/>
+      <c r="D21" s="5"/>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="D22" s="7"/>
+      <c r="D22" s="5"/>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="D23" s="7"/>
+      <c r="D23" s="5"/>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="D24" s="7"/>
+      <c r="D24" s="5"/>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="D25" s="7"/>
+      <c r="D25" s="5"/>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="D26" s="7"/>
+      <c r="D26" s="5"/>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="D27" s="7"/>
+      <c r="D27" s="5"/>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="D28" s="7"/>
+      <c r="D28" s="5"/>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="D29" s="7"/>
+      <c r="D29" s="5"/>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="D30" s="7"/>
+      <c r="D30" s="5"/>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="D31" s="7"/>
+      <c r="D31" s="5"/>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="D32" s="7"/>
+      <c r="D32" s="5"/>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D33" s="7"/>
+      <c r="D33" s="5"/>
     </row>
     <row r="34" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D34" s="7"/>
+      <c r="D34" s="5"/>
     </row>
     <row r="35" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D35" s="7"/>
+      <c r="D35" s="5"/>
     </row>
     <row r="36" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D36" s="7"/>
+      <c r="D36" s="5"/>
     </row>
     <row r="37" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D37" s="7"/>
+      <c r="D37" s="5"/>
     </row>
     <row r="38" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D38" s="7"/>
+      <c r="D38" s="5"/>
     </row>
     <row r="39" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D39" s="7"/>
+      <c r="D39" s="5"/>
     </row>
     <row r="40" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D40" s="7"/>
+      <c r="D40" s="5"/>
     </row>
     <row r="41" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D41" s="7"/>
+      <c r="D41" s="5"/>
     </row>
     <row r="42" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D42" s="7"/>
+      <c r="D42" s="5"/>
     </row>
     <row r="43" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D43" s="7"/>
+      <c r="D43" s="5"/>
     </row>
     <row r="44" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D44" s="7"/>
+      <c r="D44" s="5"/>
     </row>
     <row r="45" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D45" s="7"/>
+      <c r="D45" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
